--- a/HTML_KÁVÉZO/kave_kepek.xlsx
+++ b/HTML_KÁVÉZO/kave_kepek.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38297E64-690F-4D9E-9D3E-5F731255666A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2245DA3-92DF-4069-9975-ABEE8D9E7063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="altok" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>sor</t>
   </si>
@@ -57,13 +57,172 @@
   </si>
   <si>
     <t>leírás</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\americano.jpg</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>americano</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\black_tea.jpg</t>
+  </si>
+  <si>
+    <t>black tea</t>
+  </si>
+  <si>
+    <t>Black tea</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Cappuccino.jpg</t>
+  </si>
+  <si>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>cappuccino</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\english_tea.jpg</t>
+  </si>
+  <si>
+    <t>english tea</t>
+  </si>
+  <si>
+    <t>Angol tea</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\espresso.jpg</t>
+  </si>
+  <si>
+    <t>espresso</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\green_tea.jpg</t>
+  </si>
+  <si>
+    <t>green tea</t>
+  </si>
+  <si>
+    <t>Zöld tea</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\ice_late.jpg</t>
+  </si>
+  <si>
+    <t>ice latte</t>
+  </si>
+  <si>
+    <t>Ice latte</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\latte.jpg</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>Latte</t>
+  </si>
+  <si>
+    <t>Kávék</t>
+  </si>
+  <si>
+    <t>Sütemények</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\afonyas_torta.jpg</t>
+  </si>
+  <si>
+    <t>afonyas torta</t>
+  </si>
+  <si>
+    <t>Áfonyás torta</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\csoki_torta.jpg</t>
+  </si>
+  <si>
+    <t>csoki torta</t>
+  </si>
+  <si>
+    <t>Csokoládés izesitésű torta</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\fank.jpg</t>
+  </si>
+  <si>
+    <t>fank</t>
+  </si>
+  <si>
+    <t>Fánk</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\kremes_mocsi.jpg</t>
+  </si>
+  <si>
+    <t>cream mocsi</t>
+  </si>
+  <si>
+    <t>Krémes mocsi</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\kuglo.jpg</t>
+  </si>
+  <si>
+    <t>kuglof</t>
+  </si>
+  <si>
+    <t>Kuglóf</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\macaron.jpg</t>
+  </si>
+  <si>
+    <t>macaron</t>
+  </si>
+  <si>
+    <t>Macaron</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\muffin.jpg</t>
+  </si>
+  <si>
+    <t>muffin</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>Awaiting acceptance\Sütik\piskotas_suti.jpg</t>
+  </si>
+  <si>
+    <t>piskotas suti</t>
+  </si>
+  <si>
+    <t>Piskotas süti</t>
+  </si>
+  <si>
+    <t>Kép helye</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +238,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BKK-Icon-Pack"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,15 +260,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -390,17 +575,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -445,29 +630,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6CB7A-C50A-4A5F-BDB3-385859D1FBE3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E6454543-D0CA-4854-A56B-094C676B17B8}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7E569359-AB2F-4A73-86FA-6C3A11FBAA37}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A64F31CB-6723-4C8D-8A9C-C97D01C9DE78}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{9CF690A3-C9BF-4A02-B04A-673CF5BEEA85}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{22EC444D-94FA-4908-BF66-7144702C74D7}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{7B896A00-54C2-4AA0-8222-234D64A59606}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{5C3C487E-69E1-4E4D-8EC2-32B95F7638B8}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{507BB093-65E9-4E65-AB3A-C471B9392274}"/>
+    <hyperlink ref="A14" r:id="rId9" xr:uid="{5D439EA8-555F-40BF-B65D-55CBD383541C}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{C9D5CA7B-8A9E-4AE9-8D25-E5A8BAC289D1}"/>
+    <hyperlink ref="A16" r:id="rId11" xr:uid="{D01B117C-4B3B-490A-B5D2-8C152C193701}"/>
+    <hyperlink ref="A17" r:id="rId12" xr:uid="{25E9BDE6-E78B-4064-A435-18818D94D442}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{63495C28-28D4-4DBF-87AD-D0327233D57C}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{7636EAE0-DBD4-4441-9BFE-48D0EA80D3BC}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{1105B92D-A8F2-4DED-A7F9-EFFD6A0B0291}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{37AEC414-2FE1-4FAB-91C9-B8614070C09A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/HTML_KÁVÉZO/kave_kepek.xlsx
+++ b/HTML_KÁVÉZO/kave_kepek.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2245DA3-92DF-4069-9975-ABEE8D9E7063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC6C58-4B81-4E06-B596-B6D4DDA8056D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="altok" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>sor</t>
   </si>
@@ -210,19 +210,13 @@
   </si>
   <si>
     <t>Kép helye</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,14 +572,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -633,26 +627,24 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -662,11 +654,9 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -677,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -688,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -699,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -710,7 +700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -721,7 +711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -732,7 +722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -743,7 +733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -754,14 +744,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -772,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -783,7 +773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -794,7 +784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -805,7 +795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -816,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -827,7 +817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -838,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -849,7 +839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
